--- a/bot/base.xlsx
+++ b/bot/base.xlsx
@@ -430,7 +430,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ИСПк-103</t>
+          <t>ИСПк-305</t>
         </is>
       </c>
     </row>

--- a/bot/base.xlsx
+++ b/bot/base.xlsx
@@ -406,7 +406,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>ИСПк-302</t>
         </is>
       </c>
     </row>
@@ -430,7 +430,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ИСПк-305</t>
+          <t>ЗИОк-302</t>
         </is>
       </c>
     </row>

--- a/bot/base.xlsx
+++ b/bot/base.xlsx
@@ -430,7 +430,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ЗИОк-302</t>
+          <t>ФКк-401</t>
         </is>
       </c>
     </row>

--- a/bot/base.xlsx
+++ b/bot/base.xlsx
@@ -406,7 +406,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>ИСПк-302</t>
+          <t>ПСОк-204</t>
         </is>
       </c>
     </row>
@@ -430,7 +430,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ФКк-401</t>
+          <t>ПСОк-303</t>
         </is>
       </c>
     </row>

--- a/bot/base.xlsx
+++ b/bot/base.xlsx
@@ -430,7 +430,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ПСОк-303</t>
+          <t>ЭКНк-101</t>
         </is>
       </c>
     </row>

--- a/bot/base.xlsx
+++ b/bot/base.xlsx
@@ -406,7 +406,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>ПСОк-204</t>
+          <t>ИСПк-204</t>
         </is>
       </c>
     </row>
@@ -430,7 +430,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ЭКНк-101</t>
+          <t>Сегодня</t>
         </is>
       </c>
     </row>
